--- a/Dataset/Authors/CATO_orat.xlsx
+++ b/Dataset/Authors/CATO_orat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82B77B-3090-4AAE-B3D4-444D90A0E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0928E-531D-4E5F-818E-F5311839A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0842E3E8-F1A1-43E1-A711-A5B361DC3CF3}"/>
   </bookViews>
@@ -126,13 +126,13 @@
     <t>benefactus</t>
   </si>
   <si>
-    <t>decemvir</t>
-  </si>
-  <si>
     <t>malefactus</t>
   </si>
   <si>
     <t>succidia</t>
+  </si>
+  <si>
+    <t>decemviri</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -809,7 +809,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B31">
-    <sortCondition ref="A31"/>
+    <sortCondition ref="A8:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
